--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_0_bus_ward34_solid.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/3_five_bus_meshed_grid_dyn_gen_pf_sc_results_0_bus_ward34_solid.xlsx
@@ -529,22 +529,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480242</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566904</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,10 +564,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,10 +587,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -610,10 +610,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -719,55 +719,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.675150957904</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.324394477419384</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.451153269621466</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.952627964783886</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872185</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-5.560553331199771E-11</v>
+        <v>-8.693515171649831E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224351</v>
+        <v>0.9526279646671965</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.45739135513069E-10</v>
       </c>
       <c r="R3">
-        <v>-74.9300013442577</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404253</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564840972581282E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.910066833103</v>
+        <v>179.9999999984264</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -929,22 +929,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315017</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037876454694116E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315017</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.037881101507775E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
@@ -1086,55 +1086,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.16403419584109</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="D2">
-        <v>4.16403419584109</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.4516890272026</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="G2">
-        <v>264.4516890272026</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="H2">
-        <v>1.324394477419384</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.451153269621466</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>1.024641882834442</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2676742560808692</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.8949490735344908</v>
+        <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>6.545810733042249</v>
+        <v>5.766209884997124</v>
       </c>
       <c r="R2">
-        <v>-119.2198980305553</v>
+        <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>172.5004903485669</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9794844981017322</v>
+        <v>1.020226441315021</v>
       </c>
       <c r="O3">
-        <v>0.7611597643616361</v>
+        <v>0.2400406981630193</v>
       </c>
       <c r="P3">
-        <v>1.070183297417305</v>
+        <v>0.8960735770061722</v>
       </c>
       <c r="Q3">
-        <v>22.66519022127846</v>
+        <v>5.766209884977174</v>
       </c>
       <c r="R3">
-        <v>-82.63495878488919</v>
+        <v>-121.3466079609366</v>
       </c>
       <c r="S3">
-        <v>159.3482364747526</v>
+        <v>173.4315681785683</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05797793025859</v>
+        <v>1.020226441292308</v>
       </c>
       <c r="O4">
-        <v>0.9854968213790728</v>
+        <v>0.2400406981651698</v>
       </c>
       <c r="P4">
-        <v>1.086869251672576</v>
+        <v>0.8960735770323204</v>
       </c>
       <c r="Q4">
-        <v>27.74205110167883</v>
+        <v>5.76620988601805</v>
       </c>
       <c r="R4">
-        <v>-88.10871615027402</v>
+        <v>-121.3466079469512</v>
       </c>
       <c r="S4">
-        <v>153.0560938872236</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023840584</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O5">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658867</v>
       </c>
       <c r="P5">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410364</v>
       </c>
       <c r="Q5">
-        <v>29.99999999841987</v>
+        <v>5.766209886365009</v>
       </c>
       <c r="R5">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S5">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023840584</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O6">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658866</v>
       </c>
       <c r="P6">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410364</v>
       </c>
       <c r="Q6">
-        <v>29.99999999841987</v>
+        <v>5.766209886365011</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S6">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1453,55 +1453,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.16403419584109</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="D2">
-        <v>4.16403419584109</v>
+        <v>3.734156921377197</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.4516890272026</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="G2">
-        <v>264.4516890272026</v>
+        <v>237.1508154128772</v>
       </c>
       <c r="H2">
-        <v>1.324394477419384</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.451153269621466</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>1.024641882834442</v>
+        <v>1.020226441408047</v>
       </c>
       <c r="O2">
-        <v>0.2676742560808692</v>
+        <v>0.240040698275847</v>
       </c>
       <c r="P2">
-        <v>0.8949490735344908</v>
+        <v>0.8960735769153692</v>
       </c>
       <c r="Q2">
-        <v>6.545810733042249</v>
+        <v>5.766209884997124</v>
       </c>
       <c r="R2">
-        <v>-119.2198980305553</v>
+        <v>-121.3466079962484</v>
       </c>
       <c r="S2">
-        <v>172.5004903485669</v>
+        <v>173.4315681772755</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9794844981017322</v>
+        <v>1.020226441315021</v>
       </c>
       <c r="O3">
-        <v>0.7611597643616361</v>
+        <v>0.2400406981630193</v>
       </c>
       <c r="P3">
-        <v>1.070183297417305</v>
+        <v>0.8960735770061722</v>
       </c>
       <c r="Q3">
-        <v>22.66519022127846</v>
+        <v>5.766209884977174</v>
       </c>
       <c r="R3">
-        <v>-82.63495878488919</v>
+        <v>-121.3466079609366</v>
       </c>
       <c r="S3">
-        <v>159.3482364747526</v>
+        <v>173.4315681785683</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05797793025859</v>
+        <v>1.020226441292308</v>
       </c>
       <c r="O4">
-        <v>0.9854968213790728</v>
+        <v>0.2400406981651698</v>
       </c>
       <c r="P4">
-        <v>1.086869251672576</v>
+        <v>0.8960735770323204</v>
       </c>
       <c r="Q4">
-        <v>27.74205110167883</v>
+        <v>5.76620988601805</v>
       </c>
       <c r="R4">
-        <v>-88.10871615027402</v>
+        <v>-121.3466079469512</v>
       </c>
       <c r="S4">
-        <v>153.0560938872236</v>
+        <v>173.4315681777209</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1663,22 +1663,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023840584</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O5">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658867</v>
       </c>
       <c r="P5">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410364</v>
       </c>
       <c r="Q5">
-        <v>29.99999999841987</v>
+        <v>5.766209886365009</v>
       </c>
       <c r="R5">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S5">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023840584</v>
+        <v>1.020226441284737</v>
       </c>
       <c r="O6">
-        <v>1.10000002378808</v>
+        <v>0.2400406981658866</v>
       </c>
       <c r="P6">
-        <v>1.100000023817827</v>
+        <v>0.8960735770410364</v>
       </c>
       <c r="Q6">
-        <v>29.99999999841987</v>
+        <v>5.766209886365011</v>
       </c>
       <c r="R6">
-        <v>-90.00000000136507</v>
+        <v>-121.3466079422894</v>
       </c>
       <c r="S6">
-        <v>150.0000000008885</v>
+        <v>173.4315681774384</v>
       </c>
     </row>
   </sheetData>
@@ -1820,55 +1820,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848566</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854865</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467518844387229E-10</v>
+        <v>1.720016353742459E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429903</v>
+        <v>0.866025403678968</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.866025403890528</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.10660821520154E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696509</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254918</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
-        <v>0.8489129241453541</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.8660254039148652</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856682</v>
+        <v>3.135348748144552E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399416</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2030,22 +2030,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465178</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043571101843081E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043577153971955E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
   </sheetData>
@@ -2187,55 +2187,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="D2">
-        <v>4.162140379264773</v>
+        <v>3.63636376375428</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="G2">
-        <v>264.3314155210881</v>
+        <v>230.9401157662428</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.8660254037848566</v>
+        <v>0.8660254037845059</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.8660254037854865</v>
+        <v>0.8660254037849897</v>
       </c>
       <c r="Q2">
-        <v>2.467518844387229E-10</v>
+        <v>1.720016353742459E-10</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>179.9999999997654</v>
+        <v>179.9999999998193</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7764090888429903</v>
+        <v>0.866025403678968</v>
       </c>
       <c r="O3">
-        <v>0.5980950848578003</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.037327234784725</v>
+        <v>0.866025403890528</v>
       </c>
       <c r="Q3">
-        <v>20.03711328358643</v>
+        <v>4.10660821520154E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553696509</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>165.1406207586285</v>
+        <v>179.9999999995806</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9226540531254918</v>
+        <v>0.8660254036546305</v>
       </c>
       <c r="O4">
-        <v>0.8489129241453541</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.004507876844795</v>
+        <v>0.8660254039148652</v>
       </c>
       <c r="Q4">
-        <v>27.21839473856682</v>
+        <v>3.135348748144552E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847399416</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.1582859463579</v>
+        <v>179.9999999968559</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2397,22 +2397,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465178</v>
       </c>
       <c r="O5">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q5">
-        <v>29.99999999821417</v>
+        <v>4.043571101843081E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000009094</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000000581</v>
+        <v>0.8660254036465179</v>
       </c>
       <c r="O6">
-        <v>0.9999999999466319</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999743074</v>
+        <v>0.8660254039229777</v>
       </c>
       <c r="Q6">
-        <v>29.99999999821417</v>
+        <v>4.043577153971955E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000009094</v>
+        <v>179.9999999959476</v>
       </c>
     </row>
   </sheetData>
@@ -2554,55 +2554,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.394460119549792</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="D2">
-        <v>3.394460119549792</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="G2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.9235249897284544</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.2182041608271528</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
-        <v>0.8190898126975771</v>
+        <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.94295869805812</v>
+        <v>5.173976904115774</v>
       </c>
       <c r="R2">
-        <v>-118.7854635782679</v>
+        <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>173.2960275321284</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8345382271144525</v>
+        <v>0.9220324943451751</v>
       </c>
       <c r="O3">
-        <v>0.617217444285609</v>
+        <v>0.196406347216673</v>
       </c>
       <c r="P3">
-        <v>0.9970078406183451</v>
+        <v>0.8180121062689188</v>
       </c>
       <c r="Q3">
-        <v>20.80455970630529</v>
+        <v>5.173976904114542</v>
       </c>
       <c r="R3">
-        <v>-73.83824973735305</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
-        <v>162.7043734966286</v>
+        <v>174.1659345864976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.942320322390786</v>
+        <v>0.9220324943235484</v>
       </c>
       <c r="O4">
-        <v>0.8661701609461681</v>
+        <v>0.1964063472443384</v>
       </c>
       <c r="P4">
-        <v>0.9935581431749088</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>27.29607780058892</v>
+        <v>5.173976906219861</v>
       </c>
       <c r="R4">
-        <v>-86.20908157863238</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
-        <v>154.2185691425461</v>
+        <v>174.1659345844574</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2764,22 +2764,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O5">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535602</v>
       </c>
       <c r="P5">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q5">
-        <v>29.99999999855265</v>
+        <v>5.173976906921631</v>
       </c>
       <c r="R5">
-        <v>-90.00000000172975</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S5">
-        <v>150.0000000005734</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O6">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535603</v>
       </c>
       <c r="P6">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q6">
-        <v>29.99999999855265</v>
+        <v>5.173976906921638</v>
       </c>
       <c r="R6">
-        <v>-90.00000000172975</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
-        <v>150.0000000005734</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -2921,55 +2921,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.394460119549792</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="D2">
-        <v>3.394460119549792</v>
+        <v>3.055365721222171</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="G2">
-        <v>215.5771710153074</v>
+        <v>194.0417843782413</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.9235249897284544</v>
+        <v>0.9220324944339024</v>
       </c>
       <c r="O2">
-        <v>0.2182041608271528</v>
+        <v>0.1964063473242863</v>
       </c>
       <c r="P2">
-        <v>0.8190898126975771</v>
+        <v>0.8180121061818275</v>
       </c>
       <c r="Q2">
-        <v>5.94295869805812</v>
+        <v>5.173976904115774</v>
       </c>
       <c r="R2">
-        <v>-118.7854635782679</v>
+        <v>-122.1449202961592</v>
       </c>
       <c r="S2">
-        <v>173.2960275321284</v>
+        <v>174.1659345853095</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8345382271144525</v>
+        <v>0.9220324943451751</v>
       </c>
       <c r="O3">
-        <v>0.617217444285609</v>
+        <v>0.196406347216673</v>
       </c>
       <c r="P3">
-        <v>0.9970078406183451</v>
+        <v>0.8180121062689188</v>
       </c>
       <c r="Q3">
-        <v>20.80455970630529</v>
+        <v>5.173976904114542</v>
       </c>
       <c r="R3">
-        <v>-73.83824973735305</v>
+        <v>-122.144920254997</v>
       </c>
       <c r="S3">
-        <v>162.7043734966286</v>
+        <v>174.1659345864976</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.942320322390786</v>
+        <v>0.9220324943235484</v>
       </c>
       <c r="O4">
-        <v>0.8661701609461681</v>
+        <v>0.1964063472443384</v>
       </c>
       <c r="P4">
-        <v>0.9935581431749088</v>
+        <v>0.8180121062966169</v>
       </c>
       <c r="Q4">
-        <v>27.29607780058892</v>
+        <v>5.173976906219861</v>
       </c>
       <c r="R4">
-        <v>-86.20908157863238</v>
+        <v>-122.1449202329785</v>
       </c>
       <c r="S4">
-        <v>154.2185691425461</v>
+        <v>174.1659345844574</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3131,22 +3131,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O5">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535602</v>
       </c>
       <c r="P5">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q5">
-        <v>29.99999999855265</v>
+        <v>5.173976906921631</v>
       </c>
       <c r="R5">
-        <v>-90.00000000172975</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S5">
-        <v>150.0000000005734</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.000000000003681</v>
+        <v>0.9220324943163394</v>
       </c>
       <c r="O6">
-        <v>0.9999999999599642</v>
+        <v>0.1964063472535603</v>
       </c>
       <c r="P6">
-        <v>0.9999999999774807</v>
+        <v>0.8180121063058495</v>
       </c>
       <c r="Q6">
-        <v>29.99999999855265</v>
+        <v>5.173976906921638</v>
       </c>
       <c r="R6">
-        <v>-90.00000000172975</v>
+        <v>-122.144920225639</v>
       </c>
       <c r="S6">
-        <v>150.0000000005734</v>
+        <v>174.1659345837774</v>
       </c>
     </row>
   </sheetData>
@@ -3288,7 +3288,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.749264446688135</v>
+        <v>5.248639108526413</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>365.1273313531513</v>
+        <v>333.3333522405614</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3306,43 +3306,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419445</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496995</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268858338</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
-        <v>11.48161120915739</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.451153269621514</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6556027354356816</v>
+        <v>0.635085309874015</v>
       </c>
       <c r="O2">
-        <v>1.100000023879182</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6458770585292875</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>57.96223567360999</v>
+        <v>59.99999999685337</v>
       </c>
       <c r="R2">
-        <v>-90.00000000005058</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>122.5792803076576</v>
+        <v>119.9999999996535</v>
       </c>
       <c r="T2">
-        <v>5.749264446688135</v>
+        <v>5.248639108526412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.978857297645097</v>
+        <v>0.6350853099894103</v>
       </c>
       <c r="O3">
-        <v>1.1000000238514</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.8536677663527226</v>
+        <v>0.6350853098300094</v>
       </c>
       <c r="Q3">
-        <v>41.94451483035046</v>
+        <v>60.00000000239916</v>
       </c>
       <c r="R3">
-        <v>-90.00000000036694</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>148.5250903100137</v>
+        <v>120.0000000058973</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05471857972125</v>
+        <v>0.6350853100298038</v>
       </c>
       <c r="O4">
-        <v>1.100000023841611</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P4">
-        <v>1.017821348671589</v>
+        <v>0.6350853098168606</v>
       </c>
       <c r="Q4">
-        <v>33.6709366407567</v>
+        <v>60.00000000166495</v>
       </c>
       <c r="R4">
-        <v>-90.00000000011988</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
-        <v>149.587696249422</v>
+        <v>120.0000000094205</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3510,22 +3510,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023795903</v>
+        <v>0.6350853100432683</v>
       </c>
       <c r="O5">
-        <v>1.100000023836716</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P5">
-        <v>1.100000023807813</v>
+        <v>0.6350853098124776</v>
       </c>
       <c r="Q5">
-        <v>30.00000000050983</v>
+        <v>60.00000000142023</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S5">
-        <v>149.9999999984084</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023795903</v>
+        <v>0.6350853100432683</v>
       </c>
       <c r="O6">
-        <v>1.100000023836716</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P6">
-        <v>1.100000023807813</v>
+        <v>0.6350853098124776</v>
       </c>
       <c r="Q6">
-        <v>30.00000000050983</v>
+        <v>60.00000000142023</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S6">
-        <v>149.9999999984084</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5.749264446688135</v>
+        <v>5.248639108526413</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>365.1273313531513</v>
+        <v>333.3333522405614</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3691,43 +3691,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419445</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496995</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268858338</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
-        <v>11.48161120915739</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.451153269621514</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.6556027354356816</v>
+        <v>0.635085309874015</v>
       </c>
       <c r="O2">
-        <v>1.100000023879182</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P2">
-        <v>0.6458770585292875</v>
+        <v>0.6350853099409383</v>
       </c>
       <c r="Q2">
-        <v>57.96223567360999</v>
+        <v>59.99999999685337</v>
       </c>
       <c r="R2">
-        <v>-90.00000000005058</v>
+        <v>-89.99999999999633</v>
       </c>
       <c r="S2">
-        <v>122.5792803076576</v>
+        <v>119.9999999996535</v>
       </c>
       <c r="T2">
-        <v>5.749264446688135</v>
+        <v>5.248639108526412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.978857297645097</v>
+        <v>0.6350853099894103</v>
       </c>
       <c r="O3">
-        <v>1.1000000238514</v>
+        <v>1.100000023884843</v>
       </c>
       <c r="P3">
-        <v>0.8536677663527226</v>
+        <v>0.6350853098300094</v>
       </c>
       <c r="Q3">
-        <v>41.94451483035046</v>
+        <v>60.00000000239916</v>
       </c>
       <c r="R3">
-        <v>-90.00000000036694</v>
+        <v>-89.99999999999582</v>
       </c>
       <c r="S3">
-        <v>148.5250903100137</v>
+        <v>120.0000000058973</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.05471857972125</v>
+        <v>0.6350853100298038</v>
       </c>
       <c r="O4">
-        <v>1.100000023841611</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P4">
-        <v>1.017821348671589</v>
+        <v>0.6350853098168606</v>
       </c>
       <c r="Q4">
-        <v>33.6709366407567</v>
+        <v>60.00000000166495</v>
       </c>
       <c r="R4">
-        <v>-90.00000000011988</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S4">
-        <v>149.587696249422</v>
+        <v>120.0000000094205</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3895,22 +3895,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023795903</v>
+        <v>0.6350853100432683</v>
       </c>
       <c r="O5">
-        <v>1.100000023836716</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P5">
-        <v>1.100000023807813</v>
+        <v>0.6350853098124776</v>
       </c>
       <c r="Q5">
-        <v>30.00000000050983</v>
+        <v>60.00000000142023</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S5">
-        <v>149.9999999984084</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023795903</v>
+        <v>0.6350853100432683</v>
       </c>
       <c r="O6">
-        <v>1.100000023836716</v>
+        <v>1.100000023884842</v>
       </c>
       <c r="P6">
-        <v>1.100000023807813</v>
+        <v>0.6350853098124776</v>
       </c>
       <c r="Q6">
-        <v>30.00000000050983</v>
+        <v>60.00000000142023</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S6">
-        <v>149.9999999984084</v>
+        <v>120.0000000105948</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.831570549162906</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>243.3374116776071</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4076,43 +4076,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419445</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496995</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268858338</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
-        <v>11.48161120915739</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.451153269621514</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.7229913493234797</v>
+        <v>0.6918398877278025</v>
       </c>
       <c r="O2">
-        <v>1.100000023869021</v>
+        <v>1.100000023874157</v>
       </c>
       <c r="P2">
-        <v>0.8531614078432681</v>
+        <v>0.8378427578966808</v>
       </c>
       <c r="Q2">
-        <v>39.17854446725831</v>
+        <v>40.40951795604943</v>
       </c>
       <c r="R2">
-        <v>-90.00000000003376</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>131.0645442530766</v>
+        <v>128.9574716956184</v>
       </c>
       <c r="T2">
-        <v>3.831570549162906</v>
+        <v>3.617960382473002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9814296263287704</v>
+        <v>0.6918398877714419</v>
       </c>
       <c r="O3">
-        <v>1.100000023848866</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.9455244585460219</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>36.3311293822985</v>
+        <v>40.40951796258039</v>
       </c>
       <c r="R3">
-        <v>-90.00000000025102</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>146.7408377388894</v>
+        <v>128.9574716984651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.059095963175825</v>
+        <v>0.6918398877978492</v>
       </c>
       <c r="O4">
-        <v>1.100000023842139</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P4">
-        <v>1.048151574277144</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
-        <v>31.95201724885198</v>
+        <v>40.40951796344662</v>
       </c>
       <c r="R4">
-        <v>-90.00000000008124</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>149.0204641647017</v>
+        <v>128.9574717002523</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4280,22 +4280,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023810802</v>
+        <v>0.6918398878066517</v>
       </c>
       <c r="O5">
-        <v>1.100000023838776</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P5">
-        <v>1.10000002382496</v>
+        <v>0.8378427578019155</v>
       </c>
       <c r="Q5">
-        <v>29.9999999999885</v>
+        <v>40.40951796373537</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
-        <v>149.9999999987269</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023810802</v>
+        <v>0.6918398878066517</v>
       </c>
       <c r="O6">
-        <v>1.100000023838776</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P6">
-        <v>1.10000002382496</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
-        <v>29.9999999999885</v>
+        <v>40.40951796373537</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>149.9999999987269</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4404,22 +4404,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>6.036435464831131</v>
+        <v>5.248639108480242</v>
       </c>
       <c r="C2">
-        <v>1150.095421386799</v>
+        <v>1000.000056712887</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>82.79661841601046</v>
+        <v>84.28940677566904</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4439,10 +4439,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7144044587805313</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>15.06999865688234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9652661898437347</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>3.677631855800109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4485,10 +4485,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4508,10 +4508,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023764874</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.16437508859067E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4594,7 +4594,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.831570549162906</v>
+        <v>3.617960382473001</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>243.3374116776071</v>
+        <v>229.7713440812008</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4612,43 +4612,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.324394477419445</v>
+        <v>1.32439447741944</v>
       </c>
       <c r="I2">
-        <v>13.24394453496995</v>
+        <v>13.2439445349699</v>
       </c>
       <c r="J2">
-        <v>1.451153268858338</v>
+        <v>1.324394473163438</v>
       </c>
       <c r="K2">
-        <v>11.48161120915739</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="L2">
-        <v>1.451153269621514</v>
+        <v>1.324394474104341</v>
       </c>
       <c r="M2">
-        <v>11.48161120914417</v>
+        <v>13.24394453563962</v>
       </c>
       <c r="N2">
-        <v>0.7229913493234797</v>
+        <v>0.6918398877278025</v>
       </c>
       <c r="O2">
-        <v>1.100000023869021</v>
+        <v>1.100000023874157</v>
       </c>
       <c r="P2">
-        <v>0.8531614078432681</v>
+        <v>0.8378427578966808</v>
       </c>
       <c r="Q2">
-        <v>39.17854446725831</v>
+        <v>40.40951795604943</v>
       </c>
       <c r="R2">
-        <v>-90.00000000003376</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>131.0645442530766</v>
+        <v>128.9574716956184</v>
       </c>
       <c r="T2">
-        <v>3.831570549162906</v>
+        <v>3.617960382473002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9814296263287704</v>
+        <v>0.6918398877714419</v>
       </c>
       <c r="O3">
-        <v>1.100000023848866</v>
+        <v>1.100000023874165</v>
       </c>
       <c r="P3">
-        <v>0.9455244585460219</v>
+        <v>0.8378427578167497</v>
       </c>
       <c r="Q3">
-        <v>36.3311293822985</v>
+        <v>40.40951796258039</v>
       </c>
       <c r="R3">
-        <v>-90.00000000025102</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S3">
-        <v>146.7408377388894</v>
+        <v>128.9574716984651</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.059095963175825</v>
+        <v>0.6918398877978492</v>
       </c>
       <c r="O4">
-        <v>1.100000023842139</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P4">
-        <v>1.048151574277144</v>
+        <v>0.8378427578056242</v>
       </c>
       <c r="Q4">
-        <v>31.95201724885198</v>
+        <v>40.40951796344662</v>
       </c>
       <c r="R4">
-        <v>-90.00000000008124</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S4">
-        <v>149.0204641647017</v>
+        <v>128.9574717002523</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4816,22 +4816,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023810802</v>
+        <v>0.6918398878066517</v>
       </c>
       <c r="O5">
-        <v>1.100000023838776</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P5">
-        <v>1.10000002382496</v>
+        <v>0.8378427578019155</v>
       </c>
       <c r="Q5">
-        <v>29.9999999999885</v>
+        <v>40.40951796373537</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999613</v>
       </c>
       <c r="S5">
-        <v>149.9999999987269</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023810802</v>
+        <v>0.6918398878066517</v>
       </c>
       <c r="O6">
-        <v>1.100000023838776</v>
+        <v>1.100000023874164</v>
       </c>
       <c r="P6">
-        <v>1.10000002382496</v>
+        <v>0.8378427578019157</v>
       </c>
       <c r="Q6">
-        <v>29.9999999999885</v>
+        <v>40.40951796373537</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999615</v>
       </c>
       <c r="S6">
-        <v>149.9999999987269</v>
+        <v>128.957471700848</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4979,7 +4979,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.586599791654315</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -4988,7 +4988,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>291.288208681437</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -4997,43 +4997,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976293</v>
+        <v>1.504993724976285</v>
       </c>
       <c r="I2">
-        <v>15.04993697142828</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383466215</v>
+        <v>1.504993722648795</v>
       </c>
       <c r="K2">
-        <v>13.05836749311504</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.504993720695422</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6002394598434823</v>
+        <v>0.5773502691155638</v>
       </c>
       <c r="O2">
-        <v>0.9999999999976865</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5818736976209913</v>
+        <v>0.5773502692541777</v>
       </c>
       <c r="Q2">
-        <v>58.32995021585437</v>
+        <v>59.99999999647624</v>
       </c>
       <c r="R2">
-        <v>-89.99999999998766</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>122.7925106187596</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.586599791654315</v>
+        <v>4.198911195792622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8963084807768622</v>
+        <v>0.5773502692231761</v>
       </c>
       <c r="O3">
-        <v>0.9999999999948421</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P3">
-        <v>0.7015559721735826</v>
+        <v>0.5773502691507315</v>
       </c>
       <c r="Q3">
-        <v>47.00707995720057</v>
+        <v>60.00000000216511</v>
       </c>
       <c r="R3">
-        <v>-89.99999999994755</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S3">
-        <v>150.5991108903422</v>
+        <v>120.0000000019795</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.956371359233911</v>
+        <v>0.5773502692712913</v>
       </c>
       <c r="O4">
-        <v>0.9999999999956999</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P4">
-        <v>0.9005091929446085</v>
+        <v>0.577350269150172</v>
       </c>
       <c r="Q4">
-        <v>35.24263161627736</v>
+        <v>59.99999999947248</v>
       </c>
       <c r="R4">
-        <v>-89.99999999998009</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>150.1555796359135</v>
+        <v>120.000000007461</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5201,22 +5201,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999961822</v>
+        <v>0.5773502692873299</v>
       </c>
       <c r="O5">
-        <v>0.9999999999961287</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P5">
-        <v>0.9999999999779438</v>
+        <v>0.5773502691499852</v>
       </c>
       <c r="Q5">
-        <v>30.00000000006703</v>
+        <v>59.99999999857495</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>149.9999999983258</v>
+        <v>120.0000000092882</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999961822</v>
+        <v>0.5773502692873299</v>
       </c>
       <c r="O6">
-        <v>0.9999999999961287</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.9999999999779438</v>
+        <v>0.5773502691499852</v>
       </c>
       <c r="Q6">
-        <v>30.00000000006703</v>
+        <v>59.99999999857495</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>149.9999999983258</v>
+        <v>120.0000000092882</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5364,7 +5364,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.586599791654315</v>
+        <v>4.198911195792622</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>291.288208681437</v>
+        <v>266.6666760113624</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5382,43 +5382,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976293</v>
+        <v>1.504993724976285</v>
       </c>
       <c r="I2">
-        <v>15.04993697142828</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383466215</v>
+        <v>1.504993722648795</v>
       </c>
       <c r="K2">
-        <v>13.05836749311504</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.504993720695422</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6002394598434823</v>
+        <v>0.5773502691155638</v>
       </c>
       <c r="O2">
-        <v>0.9999999999976865</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P2">
-        <v>0.5818736976209913</v>
+        <v>0.5773502692541777</v>
       </c>
       <c r="Q2">
-        <v>58.32995021585437</v>
+        <v>59.99999999647624</v>
       </c>
       <c r="R2">
-        <v>-89.99999999998766</v>
+        <v>-89.99999999999635</v>
       </c>
       <c r="S2">
-        <v>122.7925106187596</v>
+        <v>119.9999999955745</v>
       </c>
       <c r="T2">
-        <v>4.586599791654315</v>
+        <v>4.198911195792622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8963084807768622</v>
+        <v>0.5773502692231761</v>
       </c>
       <c r="O3">
-        <v>0.9999999999948421</v>
+        <v>0.9999999999962951</v>
       </c>
       <c r="P3">
-        <v>0.7015559721735826</v>
+        <v>0.5773502691507315</v>
       </c>
       <c r="Q3">
-        <v>47.00707995720057</v>
+        <v>60.00000000216511</v>
       </c>
       <c r="R3">
-        <v>-89.99999999994755</v>
+        <v>-89.99999999999581</v>
       </c>
       <c r="S3">
-        <v>150.5991108903422</v>
+        <v>120.0000000019795</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.956371359233911</v>
+        <v>0.5773502692712913</v>
       </c>
       <c r="O4">
-        <v>0.9999999999956999</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P4">
-        <v>0.9005091929446085</v>
+        <v>0.577350269150172</v>
       </c>
       <c r="Q4">
-        <v>35.24263161627736</v>
+        <v>59.99999999947248</v>
       </c>
       <c r="R4">
-        <v>-89.99999999998009</v>
+        <v>-89.99999999999579</v>
       </c>
       <c r="S4">
-        <v>150.1555796359135</v>
+        <v>120.000000007461</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5586,22 +5586,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.999999999961822</v>
+        <v>0.5773502692873299</v>
       </c>
       <c r="O5">
-        <v>0.9999999999961287</v>
+        <v>0.9999999999962955</v>
       </c>
       <c r="P5">
-        <v>0.9999999999779438</v>
+        <v>0.5773502691499852</v>
       </c>
       <c r="Q5">
-        <v>30.00000000006703</v>
+        <v>59.99999999857495</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S5">
-        <v>149.9999999983258</v>
+        <v>120.0000000092882</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.999999999961822</v>
+        <v>0.5773502692873299</v>
       </c>
       <c r="O6">
-        <v>0.9999999999961287</v>
+        <v>0.9999999999962953</v>
       </c>
       <c r="P6">
-        <v>0.9999999999779438</v>
+        <v>0.5773502691499852</v>
       </c>
       <c r="Q6">
-        <v>30.00000000006703</v>
+        <v>59.99999999857495</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999578</v>
       </c>
       <c r="S6">
-        <v>149.9999999983258</v>
+        <v>120.0000000092882</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.185550570031945</v>
+        <v>3.012913138756735</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -5758,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>202.309632703762</v>
+        <v>191.3456832876778</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -5767,43 +5767,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976293</v>
+        <v>1.504993724976285</v>
       </c>
       <c r="I2">
-        <v>15.04993697142828</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383466215</v>
+        <v>1.504993722648795</v>
       </c>
       <c r="K2">
-        <v>13.05836749311504</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.504993720695422</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6492601482285216</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.9999999999931319</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.7558735434320361</v>
+        <v>0.7472997527351805</v>
       </c>
       <c r="Q2">
-        <v>40.89998195466984</v>
+        <v>41.77463363119259</v>
       </c>
       <c r="R2">
-        <v>-89.99999999997311</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>130.4845578199177</v>
+        <v>128.1091583196818</v>
       </c>
       <c r="T2">
-        <v>3.185550570031945</v>
+        <v>3.012913138756735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8779880246854015</v>
+        <v>0.6184267550404211</v>
       </c>
       <c r="O3">
-        <v>0.9999999999942553</v>
+        <v>0.9999999999908704</v>
       </c>
       <c r="P3">
-        <v>0.7974307664728382</v>
+        <v>0.7472997526577974</v>
       </c>
       <c r="Q3">
-        <v>40.26662841241223</v>
+        <v>41.77463363810642</v>
       </c>
       <c r="R3">
-        <v>-89.99999999986687</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S3">
-        <v>147.1536897561192</v>
+        <v>128.1091583228108</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9560674808654478</v>
+        <v>0.6184267550800501</v>
       </c>
       <c r="O4">
-        <v>0.9999999999965394</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P4">
-        <v>0.9322424469691234</v>
+        <v>0.747299752654525</v>
       </c>
       <c r="Q4">
-        <v>33.12748898724854</v>
+        <v>41.77463363817502</v>
       </c>
       <c r="R4">
-        <v>-89.99999999995319</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S4">
-        <v>149.1887383182273</v>
+        <v>128.1091583258394</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999742338</v>
+        <v>0.6184267550932598</v>
       </c>
       <c r="O5">
-        <v>0.9999999999976816</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P5">
-        <v>0.9999999999896948</v>
+        <v>0.7472997526534342</v>
       </c>
       <c r="Q5">
-        <v>29.99999999975154</v>
+        <v>41.77463363819791</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S5">
-        <v>149.9999999987068</v>
+        <v>128.1091583268489</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999742338</v>
+        <v>0.6184267550932598</v>
       </c>
       <c r="O6">
-        <v>0.9999999999976816</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P6">
-        <v>0.9999999999896948</v>
+        <v>0.7472997526534343</v>
       </c>
       <c r="Q6">
-        <v>29.99999999975154</v>
+        <v>41.77463363819791</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S6">
-        <v>149.9999999987068</v>
+        <v>128.1091583268489</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6134,7 +6134,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.185550570031945</v>
+        <v>3.012913138756735</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -6143,7 +6143,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>202.309632703762</v>
+        <v>191.3456832876778</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -6152,43 +6152,43 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>1.504993724976293</v>
+        <v>1.504993724976285</v>
       </c>
       <c r="I2">
-        <v>15.04993697142828</v>
+        <v>15.04993697142822</v>
       </c>
       <c r="J2">
-        <v>2.024404383466215</v>
+        <v>1.504993722648795</v>
       </c>
       <c r="K2">
-        <v>13.05836749311504</v>
+        <v>15.04993697229388</v>
       </c>
       <c r="L2">
-        <v>2.024404381992635</v>
+        <v>1.504993720695422</v>
       </c>
       <c r="M2">
-        <v>13.05836749319938</v>
+        <v>15.04993697229304</v>
       </c>
       <c r="N2">
-        <v>0.6492601482285216</v>
+        <v>0.6184267549947472</v>
       </c>
       <c r="O2">
-        <v>0.9999999999931319</v>
+        <v>0.9999999999908641</v>
       </c>
       <c r="P2">
-        <v>0.7558735434320361</v>
+        <v>0.7472997527351805</v>
       </c>
       <c r="Q2">
-        <v>40.89998195466984</v>
+        <v>41.77463363119259</v>
       </c>
       <c r="R2">
-        <v>-89.99999999997311</v>
+        <v>-89.99999999999652</v>
       </c>
       <c r="S2">
-        <v>130.4845578199177</v>
+        <v>128.1091583196818</v>
       </c>
       <c r="T2">
-        <v>3.185550570031945</v>
+        <v>3.012913138756735</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8779880246854015</v>
+        <v>0.6184267550404211</v>
       </c>
       <c r="O3">
-        <v>0.9999999999942553</v>
+        <v>0.9999999999908704</v>
       </c>
       <c r="P3">
-        <v>0.7974307664728382</v>
+        <v>0.7472997526577974</v>
       </c>
       <c r="Q3">
-        <v>40.26662841241223</v>
+        <v>41.77463363810642</v>
       </c>
       <c r="R3">
-        <v>-89.99999999986687</v>
+        <v>-89.99999999999611</v>
       </c>
       <c r="S3">
-        <v>147.1536897561192</v>
+        <v>128.1091583228108</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9560674808654478</v>
+        <v>0.6184267550800501</v>
       </c>
       <c r="O4">
-        <v>0.9999999999965394</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P4">
-        <v>0.9322424469691234</v>
+        <v>0.747299752654525</v>
       </c>
       <c r="Q4">
-        <v>33.12748898724854</v>
+        <v>41.77463363817502</v>
       </c>
       <c r="R4">
-        <v>-89.99999999995319</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S4">
-        <v>149.1887383182273</v>
+        <v>128.1091583258394</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999742338</v>
+        <v>0.6184267550932598</v>
       </c>
       <c r="O5">
-        <v>0.9999999999976816</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P5">
-        <v>0.9999999999896948</v>
+        <v>0.7472997526534342</v>
       </c>
       <c r="Q5">
-        <v>29.99999999975154</v>
+        <v>41.77463363819791</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S5">
-        <v>149.9999999987068</v>
+        <v>128.1091583268489</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999742338</v>
+        <v>0.6184267550932598</v>
       </c>
       <c r="O6">
-        <v>0.9999999999976816</v>
+        <v>0.9999999999908705</v>
       </c>
       <c r="P6">
-        <v>0.9999999999896948</v>
+        <v>0.7472997526534343</v>
       </c>
       <c r="Q6">
-        <v>29.99999999975154</v>
+        <v>41.77463363819791</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999635</v>
+        <v>-89.99999999999609</v>
       </c>
       <c r="S6">
-        <v>149.9999999987068</v>
+        <v>128.1091583268489</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6522,58 +6522,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.859762020634441</v>
+        <v>5.24863910873685</v>
       </c>
       <c r="D2">
-        <v>5.947998862758108</v>
+        <v>5.248639107970814</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.1448698000484</v>
+        <v>333.333352253926</v>
       </c>
       <c r="G2">
-        <v>377.748661900828</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419384</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.451153269621466</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.664017102703654</v>
+        <v>0.6350853098347082</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6640171027182687</v>
+        <v>0.6350853098507082</v>
       </c>
       <c r="Q2">
-        <v>0.452319910165447</v>
+        <v>-4.877415967688552E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5476800888495</v>
+        <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.487744842995168</v>
+        <v>5.248639108420278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8506126024089549</v>
+        <v>0.6350853097237746</v>
       </c>
       <c r="O3">
-        <v>0.7144044587888276</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9837891594868297</v>
+        <v>0.6350853099661088</v>
       </c>
       <c r="Q3">
-        <v>27.71595287951278</v>
+        <v>1.367200135969699E-09</v>
       </c>
       <c r="R3">
-        <v>-74.9300013437748</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.5980446905851</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016708418941938</v>
+        <v>0.6350853097106259</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489436</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055793408329967</v>
+        <v>0.6350853100065024</v>
       </c>
       <c r="Q4">
-        <v>29.36318525975024</v>
+        <v>4.890293891375653E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814433109</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8844780066663</v>
+        <v>-179.9999999991301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6741,22 +6741,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812798</v>
+        <v>0.635085309706243</v>
       </c>
       <c r="O5">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798957</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831411</v>
+        <v>6.064664136487666E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062428</v>
       </c>
       <c r="O6">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798957</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831411</v>
+        <v>6.064673299271888E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6907,58 +6907,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.859762020634441</v>
+        <v>5.24863910873685</v>
       </c>
       <c r="D2">
-        <v>5.947998862758108</v>
+        <v>5.248639107970814</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>372.1448698000484</v>
+        <v>333.333352253926</v>
       </c>
       <c r="G2">
-        <v>377.748661900828</v>
+        <v>333.3333522052762</v>
       </c>
       <c r="H2">
-        <v>1.324394477419384</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.451153269621466</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.664017102703654</v>
+        <v>0.6350853098347082</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6640171027182687</v>
+        <v>0.6350853098507082</v>
       </c>
       <c r="Q2">
-        <v>0.452319910165447</v>
+        <v>-4.877415967688552E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.5476800888495</v>
+        <v>179.999999996043</v>
       </c>
       <c r="T2">
-        <v>5.487744842995168</v>
+        <v>5.248639108420278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8506126024089549</v>
+        <v>0.6350853097237746</v>
       </c>
       <c r="O3">
-        <v>0.7144044587888276</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9837891594868297</v>
+        <v>0.6350853099661088</v>
       </c>
       <c r="Q3">
-        <v>27.71595287951278</v>
+        <v>1.367200135969699E-09</v>
       </c>
       <c r="R3">
-        <v>-74.9300013437748</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>162.5980446905851</v>
+        <v>-179.9999999983958</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.016708418941938</v>
+        <v>0.6350853097106259</v>
       </c>
       <c r="O4">
-        <v>0.9652661898489436</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.055793408329967</v>
+        <v>0.6350853100065024</v>
       </c>
       <c r="Q4">
-        <v>29.36318525975024</v>
+        <v>4.890293891375653E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814433109</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.8844780066663</v>
+        <v>-179.9999999991301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7126,22 +7126,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023812798</v>
+        <v>0.635085309706243</v>
       </c>
       <c r="O5">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023798957</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q5">
-        <v>29.99999999831411</v>
+        <v>6.064664136487666E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023812798</v>
+        <v>0.6350853097062428</v>
       </c>
       <c r="O6">
-        <v>1.100000023767813</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023798957</v>
+        <v>0.6350853100199668</v>
       </c>
       <c r="Q6">
-        <v>29.99999999831411</v>
+        <v>6.064673299271888E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000005986</v>
+        <v>-179.9999999993748</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7292,58 +7292,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.847604808793747</v>
+        <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>3.935898816464039</v>
+        <v>3.617960382231206</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>244.3557239301605</v>
+        <v>229.7713440888676</v>
       </c>
       <c r="G2">
-        <v>249.9631465307507</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419384</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.451153269621466</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.8642843101781971</v>
+        <v>0.8378427578256961</v>
       </c>
       <c r="O2">
-        <v>0.4394653215781068</v>
+        <v>0.4028253111898904</v>
       </c>
       <c r="P2">
-        <v>0.7163890858854858</v>
+        <v>0.6918398877011793</v>
       </c>
       <c r="Q2">
-        <v>10.56878469717087</v>
+        <v>8.957471693504774</v>
       </c>
       <c r="R2">
-        <v>-113.6238695859402</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>160.0771427400647</v>
+        <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.722004896069843</v>
+        <v>3.617960382370078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.947045415651768</v>
+        <v>0.8378427577457518</v>
       </c>
       <c r="O3">
-        <v>0.8119045910533016</v>
+        <v>0.4028253110952156</v>
       </c>
       <c r="P3">
-        <v>0.9805828114499512</v>
+        <v>0.6918398877448083</v>
       </c>
       <c r="Q3">
-        <v>26.42236582828579</v>
+        <v>8.957471696351616</v>
       </c>
       <c r="R3">
-        <v>-86.3215410515357</v>
+        <v>-115.8807585788047</v>
       </c>
       <c r="S3">
-        <v>156.6398041493315</v>
+        <v>160.4095179634873</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048584990729663</v>
+        <v>0.8378427577346264</v>
       </c>
       <c r="O4">
-        <v>1.003560869452608</v>
+        <v>0.40282531109702</v>
       </c>
       <c r="P4">
-        <v>1.058676749961051</v>
+        <v>0.6918398877712157</v>
       </c>
       <c r="Q4">
-        <v>28.92357161410074</v>
+        <v>8.957471698138786</v>
       </c>
       <c r="R4">
-        <v>-89.00864495819614</v>
+        <v>-115.880758571812</v>
       </c>
       <c r="S4">
-        <v>152.0458542866342</v>
+        <v>160.4095179643535</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7511,22 +7511,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023828108</v>
+        <v>0.837842757730918</v>
       </c>
       <c r="O5">
-        <v>1.100000023798477</v>
+        <v>0.4028253110976216</v>
       </c>
       <c r="P5">
-        <v>1.100000023812437</v>
+        <v>0.6918398877800181</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870341</v>
+        <v>8.95747169873451</v>
       </c>
       <c r="R5">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694811</v>
       </c>
       <c r="S5">
-        <v>150.0000000000094</v>
+        <v>160.4095179646423</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023828108</v>
+        <v>0.8378427577309179</v>
       </c>
       <c r="O6">
-        <v>1.100000023798477</v>
+        <v>0.4028253110976216</v>
       </c>
       <c r="P6">
-        <v>1.100000023812437</v>
+        <v>0.6918398877800181</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870341</v>
+        <v>8.957471698734512</v>
       </c>
       <c r="R6">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694811</v>
       </c>
       <c r="S6">
-        <v>150.0000000000094</v>
+        <v>160.4095179646423</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7677,58 +7677,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.847604808793747</v>
+        <v>3.617960382593723</v>
       </c>
       <c r="D2">
-        <v>3.935898816464039</v>
+        <v>3.617960382231206</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>244.3557239301605</v>
+        <v>229.7713440888676</v>
       </c>
       <c r="G2">
-        <v>249.9631465307507</v>
+        <v>229.7713440658447</v>
       </c>
       <c r="H2">
-        <v>1.324394477419384</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.451153269621466</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.8642843101781971</v>
+        <v>0.8378427578256961</v>
       </c>
       <c r="O2">
-        <v>0.4394653215781068</v>
+        <v>0.4028253111898904</v>
       </c>
       <c r="P2">
-        <v>0.7163890858854858</v>
+        <v>0.6918398877011793</v>
       </c>
       <c r="Q2">
-        <v>10.56878469717087</v>
+        <v>8.957471693504774</v>
       </c>
       <c r="R2">
-        <v>-113.6238695859402</v>
+        <v>-115.8807585964592</v>
       </c>
       <c r="S2">
-        <v>160.0771427400647</v>
+        <v>160.4095179569557</v>
       </c>
       <c r="T2">
-        <v>3.722004896069843</v>
+        <v>3.617960382370078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.947045415651768</v>
+        <v>0.8378427577457518</v>
       </c>
       <c r="O3">
-        <v>0.8119045910533016</v>
+        <v>0.4028253110952156</v>
       </c>
       <c r="P3">
-        <v>0.9805828114499512</v>
+        <v>0.6918398877448083</v>
       </c>
       <c r="Q3">
-        <v>26.42236582828579</v>
+        <v>8.957471696351616</v>
       </c>
       <c r="R3">
-        <v>-86.3215410515357</v>
+        <v>-115.8807585788047</v>
       </c>
       <c r="S3">
-        <v>156.6398041493315</v>
+        <v>160.4095179634873</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.048584990729663</v>
+        <v>0.8378427577346264</v>
       </c>
       <c r="O4">
-        <v>1.003560869452608</v>
+        <v>0.40282531109702</v>
       </c>
       <c r="P4">
-        <v>1.058676749961051</v>
+        <v>0.6918398877712157</v>
       </c>
       <c r="Q4">
-        <v>28.92357161410074</v>
+        <v>8.957471698138786</v>
       </c>
       <c r="R4">
-        <v>-89.00864495819614</v>
+        <v>-115.880758571812</v>
       </c>
       <c r="S4">
-        <v>152.0458542866342</v>
+        <v>160.4095179643535</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7896,22 +7896,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023828108</v>
+        <v>0.837842757730918</v>
       </c>
       <c r="O5">
-        <v>1.100000023798477</v>
+        <v>0.4028253110976216</v>
       </c>
       <c r="P5">
-        <v>1.100000023812437</v>
+        <v>0.6918398877800181</v>
       </c>
       <c r="Q5">
-        <v>29.99999999870341</v>
+        <v>8.95747169873451</v>
       </c>
       <c r="R5">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694811</v>
       </c>
       <c r="S5">
-        <v>150.0000000000094</v>
+        <v>160.4095179646423</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023828108</v>
+        <v>0.8378427577309179</v>
       </c>
       <c r="O6">
-        <v>1.100000023798477</v>
+        <v>0.4028253110976216</v>
       </c>
       <c r="P6">
-        <v>1.100000023812437</v>
+        <v>0.6918398877800181</v>
       </c>
       <c r="Q6">
-        <v>29.99999999870341</v>
+        <v>8.957471698734512</v>
       </c>
       <c r="R6">
-        <v>-90.0000000013432</v>
+        <v>-115.8807585694811</v>
       </c>
       <c r="S6">
-        <v>150.0000000000094</v>
+        <v>160.4095179646423</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8062,58 +8062,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.63062212593462</v>
+        <v>4.198911196109216</v>
       </c>
       <c r="D2">
-        <v>4.776779110533736</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.0840024016169</v>
+        <v>266.6666760314688</v>
       </c>
       <c r="G2">
-        <v>303.3662175858638</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.6029168573039475</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6029168572876368</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>0.9428673880370761</v>
+        <v>-5.812876445766409E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0571326126292</v>
+        <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.384850024956993</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6987064205403714</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
-        <v>0.5980950848484362</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9023020494524506</v>
+        <v>0.5773502692819932</v>
       </c>
       <c r="Q3">
-        <v>29.35999724162531</v>
+        <v>5.928379476720048E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553735134</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.8786734204687</v>
+        <v>179.9999999993227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8995580388533128</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416846</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9573727929065616</v>
+        <v>0.5773502693301082</v>
       </c>
       <c r="Q4">
-        <v>29.83430182944936</v>
+        <v>6.074300779342955E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414539</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.5346431308112</v>
+        <v>179.9999999966301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8281,22 +8281,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634983</v>
+        <v>0.5773502693461464</v>
       </c>
       <c r="Q5">
-        <v>29.99999999826368</v>
+        <v>7.901463154532278E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001211</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634983</v>
+        <v>0.5773502693461464</v>
       </c>
       <c r="Q6">
-        <v>29.99999999826368</v>
+        <v>7.901467401131807E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001211</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8405,22 +8405,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.947041257758793</v>
+        <v>3.617960382498489</v>
       </c>
       <c r="C2">
-        <v>752.0123597809672</v>
+        <v>689.3140322484581</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
-        <v>0.4394653215735361</v>
+        <v>0.4028253111823096</v>
       </c>
       <c r="G2">
-        <v>45.00000000019415</v>
+        <v>45.00000000004626</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8440,10 +8440,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8119045910498832</v>
+        <v>0.402825311087638</v>
       </c>
       <c r="G3">
-        <v>3.678458948414037</v>
+        <v>-25.88075857997283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -8463,10 +8463,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00356086945038</v>
+        <v>0.4028253110894424</v>
       </c>
       <c r="G4">
-        <v>0.9913550417856889</v>
+        <v>-25.88075857298008</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -8486,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G5">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -8509,10 +8509,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G6">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
   </sheetData>
@@ -8598,58 +8598,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.63062212593462</v>
+        <v>4.198911196109216</v>
       </c>
       <c r="D2">
-        <v>4.776779110533736</v>
+        <v>4.198911195412805</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>294.0840024016169</v>
+        <v>266.6666760314688</v>
       </c>
       <c r="G2">
-        <v>303.3662175858638</v>
+        <v>266.6666759872408</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.6029168573039475</v>
+        <v>0.577350269195234</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6029168572876368</v>
+        <v>0.5773502691743764</v>
       </c>
       <c r="Q2">
-        <v>0.9428673880370761</v>
+        <v>-5.812876445766409E-09</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.0571326126292</v>
+        <v>179.9999999936331</v>
       </c>
       <c r="T2">
-        <v>4.384850024956993</v>
+        <v>4.198911195821406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6987064205403714</v>
+        <v>0.5773502690917838</v>
       </c>
       <c r="O3">
-        <v>0.5980950848484362</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9023020494524506</v>
+        <v>0.5773502692819932</v>
       </c>
       <c r="Q3">
-        <v>29.35999724162531</v>
+        <v>5.928379476720048E-10</v>
       </c>
       <c r="R3">
-        <v>-62.81773553735134</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>167.8786734204687</v>
+        <v>179.9999999993227</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8995580388533128</v>
+        <v>0.577350269091224</v>
       </c>
       <c r="O4">
-        <v>0.8489129241416846</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9573727929065616</v>
+        <v>0.5773502693301082</v>
       </c>
       <c r="Q4">
-        <v>29.83430182944936</v>
+        <v>6.074300779342955E-09</v>
       </c>
       <c r="R4">
-        <v>-83.84124847414539</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>155.5346431308112</v>
+        <v>179.9999999966301</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8817,22 +8817,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O5">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9999999999634983</v>
+        <v>0.5773502693461464</v>
       </c>
       <c r="Q5">
-        <v>29.99999999826368</v>
+        <v>7.901463154532278E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000001211</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999823268</v>
+        <v>0.5773502690910371</v>
       </c>
       <c r="O6">
-        <v>0.9999999999447641</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.9999999999634983</v>
+        <v>0.5773502693461464</v>
       </c>
       <c r="Q6">
-        <v>29.99999999826368</v>
+        <v>7.901467401131807E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000173458</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000001211</v>
+        <v>179.9999999957325</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8983,58 +8983,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.179734559280353</v>
+        <v>3.012913138951924</v>
       </c>
       <c r="D2">
-        <v>3.286371331090225</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>201.9402664127275</v>
+        <v>191.3456833000739</v>
       </c>
       <c r="G2">
-        <v>208.7126109928211</v>
+        <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.7681848666053908</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
-        <v>0.3649309894065811</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.6414096366456977</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>10.05257871519824</v>
+        <v>8.109158318802294</v>
       </c>
       <c r="R2">
-        <v>-113.7447931364093</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
-        <v>161.8360881962761</v>
+        <v>161.7746336318227</v>
       </c>
       <c r="T2">
-        <v>3.097359689820816</v>
+        <v>3.012913138737344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7997142991323438</v>
+        <v>0.7472997526418615</v>
       </c>
       <c r="O3">
-        <v>0.6580170546204526</v>
+        <v>0.3354590830770564</v>
       </c>
       <c r="P3">
-        <v>0.8770876512902547</v>
+        <v>0.6184267550841059</v>
       </c>
       <c r="Q3">
-        <v>26.65153791611226</v>
+        <v>8.109158321931373</v>
       </c>
       <c r="R3">
-        <v>-80.09471671644928</v>
+        <v>-117.0248837562165</v>
       </c>
       <c r="S3">
-        <v>160.727974123398</v>
+        <v>161.7746336387373</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9329129394548171</v>
+        <v>0.7472997526385891</v>
       </c>
       <c r="O4">
-        <v>0.8835420919289451</v>
+        <v>0.3354590831006825</v>
       </c>
       <c r="P4">
-        <v>0.9554704777348064</v>
+        <v>0.6184267551237351</v>
       </c>
       <c r="Q4">
-        <v>29.04370740140384</v>
+        <v>8.109158324959864</v>
       </c>
       <c r="R4">
-        <v>-87.55250307707526</v>
+        <v>-117.0248837452073</v>
       </c>
       <c r="S4">
-        <v>153.2652521371446</v>
+        <v>161.7746336388059</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9202,22 +9202,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999922955</v>
+        <v>0.747299752637498</v>
       </c>
       <c r="O5">
-        <v>0.9999999999676858</v>
+        <v>0.3354590831085578</v>
       </c>
       <c r="P5">
-        <v>0.9999999999752206</v>
+        <v>0.6184267551369447</v>
       </c>
       <c r="Q5">
-        <v>29.99999999869863</v>
+        <v>8.109158325969366</v>
       </c>
       <c r="R5">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415376</v>
       </c>
       <c r="S5">
-        <v>149.9999999997571</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999922955</v>
+        <v>0.747299752637498</v>
       </c>
       <c r="O6">
-        <v>0.9999999999676858</v>
+        <v>0.3354590831085579</v>
       </c>
       <c r="P6">
-        <v>0.9999999999752206</v>
+        <v>0.6184267551369447</v>
       </c>
       <c r="Q6">
-        <v>29.99999999869863</v>
+        <v>8.109158325969368</v>
       </c>
       <c r="R6">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415375</v>
       </c>
       <c r="S6">
-        <v>149.9999999997571</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9368,58 +9368,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.179734559280353</v>
+        <v>3.012913138951924</v>
       </c>
       <c r="D2">
-        <v>3.286371331090225</v>
+        <v>3.012913138593917</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>201.9402664127275</v>
+        <v>191.3456833000739</v>
       </c>
       <c r="G2">
-        <v>208.7126109928211</v>
+        <v>191.3456832773375</v>
       </c>
       <c r="H2">
-        <v>1.504993724976211</v>
+        <v>1.504993724976225</v>
       </c>
       <c r="I2">
-        <v>15.04993697142936</v>
+        <v>15.04993697142947</v>
       </c>
       <c r="J2">
-        <v>2.024404382478945</v>
+        <v>1.504993721246245</v>
       </c>
       <c r="K2">
-        <v>13.05836749393382</v>
+        <v>15.04993697324839</v>
       </c>
       <c r="L2">
-        <v>2.024404381992582</v>
+        <v>1.504993720695299</v>
       </c>
       <c r="M2">
-        <v>13.05836749319961</v>
+        <v>15.04993697229335</v>
       </c>
       <c r="N2">
-        <v>0.7681848666053908</v>
+        <v>0.7472997527192564</v>
       </c>
       <c r="O2">
-        <v>0.3649309894065811</v>
+        <v>0.3354590831689601</v>
       </c>
       <c r="P2">
-        <v>0.6414096366456977</v>
+        <v>0.6184267550384415</v>
       </c>
       <c r="Q2">
-        <v>10.05257871519824</v>
+        <v>8.109158318802294</v>
       </c>
       <c r="R2">
-        <v>-113.7447931364093</v>
+        <v>-117.0248837767962</v>
       </c>
       <c r="S2">
-        <v>161.8360881962761</v>
+        <v>161.7746336318227</v>
       </c>
       <c r="T2">
-        <v>3.097359689820816</v>
+        <v>3.012913138737344</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7997142991323438</v>
+        <v>0.7472997526418615</v>
       </c>
       <c r="O3">
-        <v>0.6580170546204526</v>
+        <v>0.3354590830770564</v>
       </c>
       <c r="P3">
-        <v>0.8770876512902547</v>
+        <v>0.6184267550841059</v>
       </c>
       <c r="Q3">
-        <v>26.65153791611226</v>
+        <v>8.109158321931373</v>
       </c>
       <c r="R3">
-        <v>-80.09471671644928</v>
+        <v>-117.0248837562165</v>
       </c>
       <c r="S3">
-        <v>160.727974123398</v>
+        <v>161.7746336387373</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9329129394548171</v>
+        <v>0.7472997526385891</v>
       </c>
       <c r="O4">
-        <v>0.8835420919289451</v>
+        <v>0.3354590831006825</v>
       </c>
       <c r="P4">
-        <v>0.9554704777348064</v>
+        <v>0.6184267551237351</v>
       </c>
       <c r="Q4">
-        <v>29.04370740140384</v>
+        <v>8.109158324959864</v>
       </c>
       <c r="R4">
-        <v>-87.55250307707526</v>
+        <v>-117.0248837452073</v>
       </c>
       <c r="S4">
-        <v>153.2652521371446</v>
+        <v>161.7746336388059</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9587,22 +9587,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9999999999922955</v>
+        <v>0.747299752637498</v>
       </c>
       <c r="O5">
-        <v>0.9999999999676858</v>
+        <v>0.3354590831085578</v>
       </c>
       <c r="P5">
-        <v>0.9999999999752206</v>
+        <v>0.6184267551369447</v>
       </c>
       <c r="Q5">
-        <v>29.99999999869863</v>
+        <v>8.109158325969366</v>
       </c>
       <c r="R5">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415376</v>
       </c>
       <c r="S5">
-        <v>149.9999999997571</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9999999999922955</v>
+        <v>0.747299752637498</v>
       </c>
       <c r="O6">
-        <v>0.9999999999676858</v>
+        <v>0.3354590831085579</v>
       </c>
       <c r="P6">
-        <v>0.9999999999752206</v>
+        <v>0.6184267551369447</v>
       </c>
       <c r="Q6">
-        <v>29.99999999869863</v>
+        <v>8.109158325969368</v>
       </c>
       <c r="R6">
-        <v>-90.00000000161208</v>
+        <v>-117.0248837415375</v>
       </c>
       <c r="S6">
-        <v>149.9999999997571</v>
+        <v>161.7746336388288</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9711,22 +9711,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.947041257758793</v>
+        <v>3.617960382498489</v>
       </c>
       <c r="C2">
-        <v>752.0123597809672</v>
+        <v>689.3140322484581</v>
       </c>
       <c r="D2">
-        <v>1.451153269415916</v>
+        <v>1.324394473835047</v>
       </c>
       <c r="E2">
-        <v>11.48161120914761</v>
+        <v>13.24394453564036</v>
       </c>
       <c r="F2">
-        <v>0.4394653215735361</v>
+        <v>0.4028253111823096</v>
       </c>
       <c r="G2">
-        <v>45.00000000019415</v>
+        <v>45.00000000004626</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9746,10 +9746,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8119045910498832</v>
+        <v>0.402825311087638</v>
       </c>
       <c r="G3">
-        <v>3.678458948414037</v>
+        <v>-25.88075857997283</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9769,10 +9769,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.00356086945038</v>
+        <v>0.4028253110894424</v>
       </c>
       <c r="G4">
-        <v>0.9913550417856889</v>
+        <v>-25.88075857298008</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9792,10 +9792,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G5">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9815,10 +9815,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.100000023796827</v>
+        <v>0.402825311090044</v>
       </c>
       <c r="G6">
-        <v>-1.346843188244178E-09</v>
+        <v>-25.88075857064915</v>
       </c>
     </row>
   </sheetData>
@@ -9862,22 +9862,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.000028026612</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.2894067717462</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -9897,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -9920,10 +9920,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -9943,10 +9943,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10013,22 +10013,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>4.806025736759447</v>
+        <v>4.198911195753388</v>
       </c>
       <c r="C2">
-        <v>915.670883440611</v>
+        <v>800.000028026612</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>81.18773556866032</v>
+        <v>84.2894067717462</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10048,10 +10048,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5980950848260623</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.18226446401233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8489129241315863</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>6.158751525980541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>-1.73822187836152E-09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10117,10 +10117,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999426067</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-1.738221878361521E-09</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10164,22 +10164,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.277613956240325</v>
+        <v>3.012913138782225</v>
       </c>
       <c r="C2">
-        <v>624.4693289785586</v>
+        <v>574.0370498678896</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
-        <v>0.3649309893789943</v>
+        <v>0.3354590831385722</v>
       </c>
       <c r="G2">
-        <v>44.99999999529343</v>
+        <v>44.99999999355204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10199,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6580170546041253</v>
+        <v>0.3354590830466703</v>
       </c>
       <c r="G3">
-        <v>9.905283284221765</v>
+        <v>-27.02488376071816</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8835420919224104</v>
+        <v>0.3354590830702964</v>
       </c>
       <c r="G4">
-        <v>2.447496923043595</v>
+        <v>-27.02488374970881</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10245,10 +10245,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G5">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10268,10 +10268,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G6">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
   </sheetData>
@@ -10315,22 +10315,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>3.277613956240325</v>
+        <v>3.012913138782225</v>
       </c>
       <c r="C2">
-        <v>624.4693289785586</v>
+        <v>574.0370498678896</v>
       </c>
       <c r="D2">
-        <v>2.024404382484105</v>
+        <v>1.504993721305348</v>
       </c>
       <c r="E2">
-        <v>13.05836749317373</v>
+        <v>15.0499369722939</v>
       </c>
       <c r="F2">
-        <v>0.3649309893789943</v>
+        <v>0.3354590831385722</v>
       </c>
       <c r="G2">
-        <v>44.99999999529343</v>
+        <v>44.99999999355204</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6580170546041253</v>
+        <v>0.3354590830466703</v>
       </c>
       <c r="G3">
-        <v>9.905283284221765</v>
+        <v>-27.02488376071816</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -10373,10 +10373,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8835420919224104</v>
+        <v>0.3354590830702964</v>
       </c>
       <c r="G4">
-        <v>2.447496923043595</v>
+        <v>-27.02488374970881</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -10396,10 +10396,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G5">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -10419,10 +10419,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9999999999664801</v>
+        <v>0.3354590830781718</v>
       </c>
       <c r="G6">
-        <v>-1.615733175511243E-09</v>
+        <v>-27.02488374603903</v>
       </c>
     </row>
   </sheetData>
@@ -10505,55 +10505,55 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="D2">
-        <v>5.227706460716396</v>
+        <v>4.545454803106411</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>332.0039505572853</v>
+        <v>288.675150957904</v>
       </c>
       <c r="G2">
-        <v>332.0039505572853</v>
+        <v>288.675150957904</v>
       </c>
       <c r="H2">
-        <v>1.324394477419384</v>
+        <v>1.324394477419386</v>
       </c>
       <c r="I2">
-        <v>13.24394453497092</v>
+        <v>13.243944534971</v>
       </c>
       <c r="J2">
-        <v>1.451153269669938</v>
+        <v>1.324394474186051</v>
       </c>
       <c r="K2">
-        <v>11.48161120921787</v>
+        <v>13.24394453578229</v>
       </c>
       <c r="L2">
-        <v>1.451153269621466</v>
+        <v>1.324394474104235</v>
       </c>
       <c r="M2">
-        <v>11.48161120914437</v>
+        <v>13.24394453563988</v>
       </c>
       <c r="N2">
-        <v>0.952627964783886</v>
+        <v>0.9526279647803685</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9526279647872185</v>
+        <v>0.9526279647833883</v>
       </c>
       <c r="Q2">
-        <v>-5.560553331199771E-11</v>
+        <v>-8.693515171649831E-11</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>-179.9999999998618</v>
+        <v>-179.9999999999071</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9263628701224351</v>
+        <v>0.9526279646671965</v>
       </c>
       <c r="O3">
-        <v>0.7144044587905427</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.100926326725327</v>
+        <v>0.9526279648965608</v>
       </c>
       <c r="Q3">
-        <v>21.85971731009334</v>
+        <v>1.45739135513069E-10</v>
       </c>
       <c r="R3">
-        <v>-74.9300013442577</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>161.7419237440982</v>
+        <v>179.9999999998456</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.03992931268325</v>
+        <v>0.9526279646404253</v>
       </c>
       <c r="O4">
-        <v>0.9652661898515371</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.095178757979144</v>
+        <v>0.952627964923332</v>
       </c>
       <c r="Q4">
-        <v>27.59030792399508</v>
+        <v>1.564840972581282E-09</v>
       </c>
       <c r="R4">
-        <v>-86.32236814444742</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>153.910066833103</v>
+        <v>179.9999999984264</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10715,22 +10715,22 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315017</v>
       </c>
       <c r="O5">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q5">
-        <v>29.99999999806144</v>
+        <v>2.037876454694116E-09</v>
       </c>
       <c r="R5">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.100000023834696</v>
+        <v>0.9526279646315017</v>
       </c>
       <c r="O6">
-        <v>1.100000023770273</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.100000023815336</v>
+        <v>0.9526279649322558</v>
       </c>
       <c r="Q6">
-        <v>29.99999999806144</v>
+        <v>2.037881101507775E-09</v>
       </c>
       <c r="R6">
-        <v>-90.00000000116073</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>150.0000000013491</v>
+        <v>179.9999999979534</v>
       </c>
     </row>
   </sheetData>
